--- a/Build/EDUBot Parts List.xlsx
+++ b/Build/EDUBot Parts List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\_Work\Educational Robot\EDUBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\_Work\Educational Robot\github\UND_EDUBot\Build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54619CA-C43A-4935-A92E-46BFE695B7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263A3163-089C-4D39-9B0B-8D579728AC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{57B26DBE-87C8-467A-851A-2402CD0AE304}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>Subsystem</t>
   </si>
@@ -215,7 +215,10 @@
     <t>w/o consumables</t>
   </si>
   <si>
-    <t>FIND ON DIGIKEY</t>
+    <t>Amazon.com: Tokeyla 3.7 Volt 18650 Rechargeable Battery, 3000mAh Battery Flat Top Lithium Batteries for LED Flashlights, Headlamp (6 Pack) : Health &amp; Household</t>
+  </si>
+  <si>
+    <t>*6 for price of 3</t>
   </si>
 </sst>
 </file>
@@ -271,18 +274,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -623,12 +626,13 @@
   <dimension ref="B4:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
     <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.109375" style="1" bestFit="1" customWidth="1"/>
@@ -659,7 +663,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -678,12 +682,12 @@
         <f>F5*E5</f>
         <v>25.98</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
+      <c r="B6" s="6"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -700,7 +704,7 @@
         <f t="shared" ref="G6:G21" si="0">F6*E6</f>
         <v>12</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -721,12 +725,12 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
@@ -745,12 +749,12 @@
         <f t="shared" si="0"/>
         <v>12.99</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
+      <c r="B10" s="6"/>
       <c r="C10" t="s">
         <v>11</v>
       </c>
@@ -767,12 +771,12 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
+      <c r="B11" s="6"/>
       <c r="C11" t="s">
         <v>12</v>
       </c>
@@ -789,12 +793,12 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
+      <c r="B12" s="6"/>
       <c r="C12" t="s">
         <v>38</v>
       </c>
@@ -811,12 +815,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
+      <c r="B13" s="6"/>
       <c r="C13" t="s">
         <v>41</v>
       </c>
@@ -833,12 +837,12 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
+      <c r="B14" s="6"/>
       <c r="C14" t="s">
         <v>40</v>
       </c>
@@ -855,12 +859,12 @@
         <f t="shared" si="0"/>
         <v>6.99</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
+      <c r="B15" s="6"/>
       <c r="C15" t="s">
         <v>13</v>
       </c>
@@ -877,12 +881,12 @@
         <f t="shared" si="0"/>
         <v>10.99</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
+      <c r="B16" s="6"/>
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -899,12 +903,12 @@
         <f t="shared" si="0"/>
         <v>6.99</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
+      <c r="B17" s="6"/>
       <c r="C17" t="s">
         <v>14</v>
       </c>
@@ -921,12 +925,12 @@
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
+      <c r="B18" s="6"/>
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -943,12 +947,12 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
+      <c r="B19" s="6"/>
       <c r="C19" t="s">
         <v>22</v>
       </c>
@@ -965,12 +969,14 @@
         <f t="shared" si="0"/>
         <v>6.99</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
+      <c r="B20" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
@@ -978,16 +984,16 @@
         <v>3</v>
       </c>
       <c r="E20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1008,15 +1014,15 @@
         <f t="shared" si="0"/>
         <v>16.989999999999998</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H22" s="5"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C23" t="s">
@@ -1035,12 +1041,12 @@
         <f>F23*E23</f>
         <v>24.98</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
+      <c r="B24" s="6"/>
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -1052,7 +1058,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
+      <c r="B25" s="6"/>
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -1061,7 +1067,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
+      <c r="B26" s="6"/>
       <c r="C26" t="s">
         <v>19</v>
       </c>
@@ -1070,7 +1076,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
+      <c r="B27" s="6"/>
       <c r="C27" t="s">
         <v>20</v>
       </c>
@@ -1079,7 +1085,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
+      <c r="B28" s="6"/>
       <c r="C28" t="s">
         <v>26</v>
       </c>
@@ -1093,12 +1099,12 @@
         <f>F28*E28</f>
         <v>15.99</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
+      <c r="B29" s="6"/>
       <c r="C29" t="s">
         <v>27</v>
       </c>
@@ -1117,7 +1123,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
+      <c r="B30" s="6"/>
       <c r="C30" t="s">
         <v>28</v>
       </c>
@@ -1126,7 +1132,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
+      <c r="B31" s="6"/>
       <c r="C31" t="s">
         <v>25</v>
       </c>
@@ -1140,15 +1146,15 @@
         <f>F31*E31</f>
         <v>2.99</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
+      <c r="B32" s="6"/>
     </row>
     <row r="34" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C34" t="s">
@@ -1167,15 +1173,15 @@
         <f>F34*E34</f>
         <v>34</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
+      <c r="B35" s="6"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="4"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F37" t="s">
@@ -1183,16 +1189,16 @@
       </c>
       <c r="G37">
         <f>SUM(G5:G36)</f>
-        <v>459.36000000000013</v>
+        <v>464.36000000000013</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G38">
         <f>G34+SUM(G5:G21)</f>
-        <v>404.42000000000007</v>
+        <v>409.42000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -1218,6 +1224,7 @@
     <hyperlink ref="H23" r:id="rId13" display="https://www.amazon.com/HELIFOUNER-Stainless-Hardware-Assortment-Wrenches/dp/B09WJ14JWF/ref=pd_sbs_d_sccl_2_7/144-1665836-2805945?pd_rd_w=Yx2YZ&amp;content-id=amzn1.sym.2cd14f8d-eb5c-4042-b934-4a05eafd2874&amp;pf_rd_p=2cd14f8d-eb5c-4042-b934-4a05eafd2874&amp;pf_rd_r=AHF5Y7ZWD393N6R3Y4BQ&amp;pd_rd_wg=2WVrM&amp;pd_rd_r=fd700e81-e609-426b-93b1-8af23913d954&amp;pd_rd_i=B09WJ14JWF&amp;th=1" xr:uid="{EBF5254C-3B39-443A-9792-69FAA814D774}"/>
     <hyperlink ref="H34" r:id="rId14" display="https://www.amazon.com/GL-iNet-GL-AR300M16-Ext-Pre-Installed-Performance-Programmable/dp/B07794JRC5/ref=sr_1_4?dib=eyJ2IjoiMSJ9.0Buz37CXKhSxZPu_pWNrFhgFF71_mC2L0CRaWHDrfCFP8kaKPDcp46FK1z6womebfdTZYwPtWHgzc2jxcIn9ij_U-HWeXpo2C9yUQW5FDghewLMlsyTKQSSJL5TAcPA4pUXkv_wA2Oa3vXgaGEHcuVQV6XlRAXHyL2zz8EI_Sd7x6c0nponsFOjEle3DGe-eL-TVgIZIzTNJAnlPAhmBxRwGoCZRGKe9GJR9eCkdfBo.57lBif8K5RqJxM-bRoreLN7qxGaReodKL5oWm4eF4ic&amp;dib_tag=se&amp;keywords=gli.net+router&amp;qid=1755788564&amp;sr=8-4" xr:uid="{869A89C8-F82E-46D5-8F30-3DEDB9257A58}"/>
     <hyperlink ref="H31" r:id="rId15" display="https://www.amazon.com/Small-Tensile-Strength-Tantti-Supply/dp/B0C2KGK2HR/ref=sr_1_1_sspa?dib=eyJ2IjoiMSJ9.vkykqYzxj8DfoTBzCHbh4g0IJum_W5YdfOMaLLUsfdmJEHr4cEN1BcdrbU7FN2CQB33Gvjrt4kbeYr3J8NsrX04ZaGluJ7DIATu3frlo__7ZfTvmC1FHR2RFGp0JxNYux0Y6EGf4re1nVYeM6V-xiSpLGs9tH_cc7wjyiW1Z7IS_UkGQtqyfSduwFzQr31vONpqbBvt1zGTdDYOGkqfITEhVuWwt82CbDbTmrYqbooM.oFz1oqiZPATWsCJuXax1VA1rN4FqxAbofB4KF339RCQ&amp;dib_tag=se&amp;keywords=4%2Binch%2Bzip%2Bties&amp;qid=1755788943&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1" xr:uid="{CCE82045-0C95-4A00-84E6-E25CCCE68520}"/>
+    <hyperlink ref="H20" r:id="rId16" display="https://www.amazon.com/Tokeyla-Rechargeable-Batteries-Flashlights-Headlamp/dp/B0DRCQHZRH/ref=sr_1_11?crid=3SATODGM16DMT&amp;dib=eyJ2IjoiMSJ9.kreFD9YlNDC1m6MspMcC-GxpuugjXvZh0qLy_mzJ8R1bQqwvoJLZVvqDT-3obTgT02kuA81h1oOKBAM3tmpK2jWQMQHRri8mZUAyknUtlvqbK9LVI4HcbpqvT1CJ98mHvmYd5HA70VxlNsLwTFddU5KqaTQByy23NMC-DgrY6qJbVgQ42FnTisbGLsewy_IaX1lIoPzmkVyMt24v5Mij2Y9BnoC1rFsH4ELQtHaM9uw-wgkHttOqxhjNsBA6x3ygNxeGgMreSlchc5gqDdsnJfCW_vfCCj0IL_HerCqkB3g.ZGQnxH73sJw965MXzMaTxkXojz8y_fZY6VceKuNYMKs&amp;dib_tag=se&amp;keywords=18650+battery&amp;qid=1755807546&amp;sprefix=18650+battery%2Caps%2C146&amp;sr=8-11" xr:uid="{9707AF7D-2338-46F0-B041-D007CDC0A9F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
